--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Dermatomyositis.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Dermatomyositis.xlsx
@@ -462,12 +462,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as telangiectasia</t>
+          <t>Progressive dysphagia for solids and liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasia is a hallmark of CREST syndrome and is not typically seen in Dermatomyositis.</t>
+          <t>This is a hallmark symptom of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness is a key feature of Dermatomyositis and is not characteristic of CREST syndrome.</t>
+          <t>Proximal muscle weakness is a classic symptom of Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms of esophageal dysmotility</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia is characterized by esophageal motility issues, which are not present in Dermatomyositis.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -499,19 +499,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The heliotrope rash is a classic cutaneous manifestation of Dermatomyositis, absent in CREST syndrome.</t>
+          <t>Heliotrope rash is a distinctive skin manifestation of Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calcinosis is more commonly associated with CREST syndrome than with Dermatomyositis.</t>
+          <t>Sclerodactyly is a specific manifestation of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -521,51 +521,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gottron's papules are specific to Dermatomyositis and do not occur in CREST syndrome.</t>
+          <t>Gottron's papules are pathognomonic for Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sclerodactyly</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a specific finding in CREST syndrome and is not a feature of Dermatomyositis.</t>
+          <t>Telangiectasia is a characteristic feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes (e.g., CK)</t>
+          <t>Muscle pain</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase (CK) levels are indicative of muscle inflammation in Dermatomyositis, not seen in CREST syndrome.</t>
+          <t>Muscle pain is more commonly associated with Dermatomyositis than with CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is frequently seen in CREST syndrome but is less common in Dermatomyositis.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym and is not typical in Dermatomyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Intermittent fever and malaise</t>
+          <t>Difficulty climbing stairs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Systemic symptoms like fever and malaise are more common in Dermatomyositis than in CREST syndrome.</t>
+          <t>This is indicative of proximal muscle weakness, a key feature of Dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -613,78 +613,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of esophageal dilation or surgery</t>
+          <t>History of sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with Type 2 Achalasia often have a history of esophageal dilation or surgical interventions.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome, which is not typically seen in Dermatomyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of muscle weakness</t>
+          <t>History of proximal muscle weakness</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Muscle weakness is a hallmark symptom of Dermatomyositis, distinguishing it from CREST syndrome.</t>
+          <t>Proximal muscle weakness is a classic symptom of Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a common manifestation in CREST syndrome, distinguishing it from Dermatomyositis.</t>
+          <t>Type 2 Achalasia is a specific esophageal motility disorder associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of skin rashes (heliotrope rash or Gottron's papules)</t>
+          <t>History of heliotrope rash</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Specific skin rashes are characteristic of Dermatomyositis and not seen in CREST syndrome.</t>
+          <t>Heliotrope rash is a distinctive dermatological feature of Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>History of calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is frequently associated with CREST syndrome and less common in Dermatomyositis.</t>
+          <t>Calcinosis is a component of CREST syndrome and not commonly associated with Dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of elevated muscle enzymes (e.g., CK)</t>
+          <t>History of Gottron's papules</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase (CK) levels are indicative of muscle damage in Dermatomyositis.</t>
+          <t>Gottron's papules are specific to Dermatomyositis and not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a known complication of CREST syndrome, whereas it is not typical in Dermatomyositis.</t>
+          <t>Raynaud's phenomenon is frequently associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -694,29 +694,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is more commonly associated with Dermatomyositis than with CREST syndrome.</t>
+          <t>Interstitial lung disease can occur in Dermatomyositis and is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of calcinosis cutis</t>
+          <t>History of telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific finding in CREST syndrome that is not present in Dermatomyositis.</t>
+          <t>Telangiectasia is a feature of CREST syndrome and not typically seen in Dermatomyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of dysphagia without esophageal surgery</t>
+          <t>History of elevated muscle enzymes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dysphagia in Dermatomyositis is often due to muscle involvement rather than structural issues like in achalasia.</t>
+          <t>Elevated muscle enzymes are indicative of muscle inflammation in Dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -769,105 +769,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with a higher prevalence of autoimmune conditions in families.</t>
+          <t>CREST syndrome, a form of limited scleroderma, is associated with a family history of autoimmune diseases.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Family history of dermatomyositis or related myopathies</t>
+          <t>Family history of muscle diseases</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dermatomyositis has a genetic component, often seen in families with similar conditions.</t>
+          <t>Dermatomyositis is associated with a family history of muscle diseases.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or asbestos</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Such exposures are linked to increased risk of scleroderma, which is part of CREST syndrome.</t>
+          <t>Smoking is a known risk factor for scleroderma, which includes CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of sun exposure leading to skin changes</t>
+          <t>History of malignancy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dermatomyositis is characterized by skin rashes that can be exacerbated by sun exposure.</t>
+          <t>Dermatomyositis is often associated with an increased risk of malignancies.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of gastroesophageal reflux disease (GERD)</t>
+          <t>Family history of esophageal disorders</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GERD is common in patients with achalasia, which is associated with CREST syndrome.</t>
+          <t>Type 2 Achalasia, part of CREST syndrome, may have a genetic component related to esophageal disorders.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Participation in activities leading to muscle strain</t>
+          <t>History of sun exposure</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Muscle strain can exacerbate symptoms in dermatomyositis, which is less relevant in CREST syndrome.</t>
+          <t>Sun exposure can exacerbate skin symptoms in dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Limited physical activity due to esophageal symptoms</t>
+          <t>Occupational exposure to silica</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients with achalasia may limit activities due to swallowing difficulties, which is more common in CREST syndrome.</t>
+          <t>Exposure to silica is a known risk factor for scleroderma, including CREST syndrome.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of malignancy in the family</t>
+          <t>Family history of connective tissue diseases</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dermatomyositis is associated with an increased risk of underlying malignancies, which may run in families.</t>
+          <t>Dermatomyositis can be associated with a family history of connective tissue diseases.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Female gender</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Raynaud's is a common symptom in CREST syndrome, indicating vascular involvement.</t>
+          <t>CREST syndrome is more common in females, which can be a distinguishing factor.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Presence of other inflammatory conditions in family</t>
+          <t>History of viral infections</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dermatomyositis can co-occur with other inflammatory diseases, indicating a broader autoimmune predisposition.</t>
+          <t>Certain viral infections have been implicated in the pathogenesis of dermatomyositis.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes consistent with sclerodactyly</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is less common in Dermatomyositis.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome and is not typically seen in Dermatomyositis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness</t>
+          <t>Heliotrope rash</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Proximal muscle weakness is a defining feature of Dermatomyositis and is not characteristic of CREST syndrome.</t>
+          <t>A heliotrope rash is a classic sign of Dermatomyositis and not seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasia is frequently observed in CREST syndrome and is not a typical finding in Dermatomyositis.</t>
+          <t>Telangiectasia is a common finding in CREST syndrome and is not characteristic of Dermatomyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Heliotrope rash</t>
+          <t>Gottron's papules</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The heliotrope rash is a classic cutaneous manifestation of Dermatomyositis and is absent in CREST syndrome.</t>
+          <t>Gottron's papules are specific to Dermatomyositis and not present in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia is a common symptom of Type 2 Achalasia associated with CREST syndrome, while it is less prevalent in Dermatomyositis.</t>
+          <t>Calcinosis is part of the CREST syndrome acronym and is not a feature of Dermatomyositis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gottron's papules</t>
+          <t>Proximal muscle weakness</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gottron's papules are specific to Dermatomyositis and are not found in CREST syndrome.</t>
+          <t>Proximal muscle weakness is a key feature of Dermatomyositis and not typical of CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more commonly associated with CREST syndrome than with Dermatomyositis.</t>
+          <t>Raynaud's phenomenon is frequently associated with CREST syndrome and less common in Dermatomyositis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes (e.g., creatine kinase)</t>
+          <t>Shawl sign</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Elevated muscle enzymes are indicative of muscle inflammation in Dermatomyositis, unlike in CREST syndrome.</t>
+          <t>The shawl sign is a skin manifestation unique to Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis</t>
+          <t>Skin thickening</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calcinosis cutis is a specific finding in CREST syndrome and is not typically seen in Dermatomyositis.</t>
+          <t>Skin thickening, especially of the fingers, is more indicative of CREST syndrome than Dermatomyositis.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Skin rash with a violaceous hue</t>
+          <t>V-sign</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A violaceous skin rash is characteristic of Dermatomyositis and not seen in CREST syndrome.</t>
+          <t>The V-sign is a rash pattern seen in Dermatomyositis and not in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -1066,34 +1066,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing Type 2 Achalasia</t>
+          <t>Esophageal manometry showing incomplete lower esophageal sphincter relaxation with aperistalsis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Type 2 Achalasia is characterized by incomplete lower esophageal sphincter relaxation and elevated resting pressure, which is a key feature in CREST syndrome.</t>
+          <t>This finding is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase levels</t>
+          <t>Elevated creatine kinase (CK) levels</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Elevated creatine kinase is a hallmark of muscle inflammation in Dermatomyositis, distinguishing it from CREST syndrome.</t>
+          <t>Elevated CK levels are indicative of muscle inflammation, a hallmark of Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Positive anti-centromere antibodies</t>
+          <t>Anticentromere antibodies</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are commonly associated with CREST syndrome, distinguishing it from Dermatomyositis.</t>
+          <t>Anticentromere antibodies are commonly found in CREST syndrome and are not typical in Dermatomyositis.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1103,73 +1103,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Perifascicular atrophy is a specific finding in Dermatomyositis and is not seen in CREST syndrome.</t>
+          <t>Perifascicular atrophy on muscle biopsy is a classic finding in Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A dilated esophagus is indicative of achalasia, which is more prevalent in CREST syndrome than in Dermatomyositis.</t>
+          <t>The bird-beak appearance on barium swallow is indicative of achalasia, often seen in CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Positive anti-Jo-1 antibodies</t>
+          <t>Positive anti-Mi-2 antibodies</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Anti-Jo-1 antibodies are associated with Dermatomyositis and are not typically found in CREST syndrome.</t>
+          <t>Anti-Mi-2 antibodies are specific for Dermatomyositis and not found in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Skin biopsy showing sclerodactyly</t>
+          <t>Pulmonary function tests showing isolated reduction in DLCO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a skin manifestation of CREST syndrome and is not present in Dermatomyositis.</t>
+          <t>Isolated reduction in DLCO is more common in CREST syndrome due to pulmonary hypertension.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Electromyography showing myopathic changes</t>
+          <t>MRI of muscles showing edema</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Myopathic changes on electromyography are indicative of muscle involvement in Dermatomyositis, unlike in CREST syndrome.</t>
+          <t>Muscle edema on MRI is indicative of active inflammation in Dermatomyositis.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pulmonary function tests showing restrictive lung disease</t>
+          <t>High-resolution esophageal manometry</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Restrictive lung disease can occur in CREST syndrome due to interstitial lung disease, which is less common in Dermatomyositis.</t>
+          <t>This test can confirm Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Skin rash consistent with heliotrope rash</t>
+          <t>Electromyography (EMG) showing myopathic changes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Heliotrope rash is a classic cutaneous manifestation of Dermatomyositis, which is not present in CREST syndrome.</t>
+          <t>Myopathic changes on EMG are consistent with muscle involvement in Dermatomyositis.</t>
         </is>
       </c>
     </row>
